--- a/biology/Botanique/Jardin_botanique_Jean-Marie-Pelt/Jardin_botanique_Jean-Marie-Pelt.xlsx
+++ b/biology/Botanique/Jardin_botanique_Jean-Marie-Pelt/Jardin_botanique_Jean-Marie-Pelt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique Jean-Marie-Pelt, anciennement jardin botanique du Montet, est un jardin botanique situé en périphérie de Nancy, en Lorraine. Il est cogéré par la Métropole du Grand Nancy et l'Université de Lorraine au sein des Jardins botaniques du Grand Nancy et de l'Université de Lorraine.
-Il a été inauguré en 1975 et a été labellisé « jardin remarquable »[4] en 2004 lors de la création de ce label[5],[6].
-C'est aujourd'hui l'un des plus grands jardins botaniques de France. Il comporte 2 500 m2 de serres tropicales, 25 ha[1] ou 35 ha[2],[3] (voire 36[4]) de collections et plus de 12 000 espèces du monde végétal[1].
+Il a été inauguré en 1975 et a été labellisé « jardin remarquable » en 2004 lors de la création de ce label,.
+C'est aujourd'hui l'un des plus grands jardins botaniques de France. Il comporte 2 500 m2 de serres tropicales, 25 ha ou 35 ha, (voire 36) de collections et plus de 12 000 espèces du monde végétal.
 Le jardin est également membre du réseau de l'association Jardins botaniques de France et des pays francophones.
 L'établissement a trois missions essentielles :
 la conservation du patrimoine végétal ;
@@ -519,7 +531,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique Jean-Marie-Pelt est sis pour l'essentiel sur la commune de Villers-lès-Nancy, mais empiète en lisière sur le territoire de Vandœuvre-lès-Nancy.
 </t>
@@ -550,7 +564,9 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le jardin d'altitude du Haut Chitelet, dans les Vosges, le jardin Jean-Marie-Pelt fait partie depuis 1976 des Jardins botaniques du Grand Nancy et de l'Université de Lorraine.
 </t>
@@ -581,10 +597,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Inauguré en 1975, il a été labellisé « jardin remarquable » en 2004.
-Le jardin, qui portait le nom de l'ancienne commune du Montet où il était situé, a été renommé en l'honneur du botaniste Jean-Marie Pelt (1933-2015) à l'occasion de la cérémonie du 23 avril 2016[7].
+Le jardin, qui portait le nom de l'ancienne commune du Montet où il était situé, a été renommé en l'honneur du botaniste Jean-Marie Pelt (1933-2015) à l'occasion de la cérémonie du 23 avril 2016.
 </t>
         </is>
       </c>
@@ -615,8 +633,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les serres tropicales
-Le bâtiment des serres tropicales se compose d'une salle à expositions temporaires et de 7 grandes serres ayant pour thématiques : 
+          <t>Les serres tropicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le bâtiment des serres tropicales se compose d'une salle à expositions temporaires et de 7 grandes serres ayant pour thématiques : 
 Palmarium et plantes menacées.
 Végétation des milieux arides.
 Forêt tropicale humide.
@@ -624,9 +647,43 @@
 Plantes aquatiques et épiphytes.
 Galerie des lianes.
 Relations plantes et animaux.
-Plantes carnivores.
-Les collections tempérées
-Les nombreuses collections de pleine terre, accessibles gratuitement, sont réparties sur l'entièreté du jardin extérieur : 
+Plantes carnivores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les collections tempérées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les nombreuses collections de pleine terre, accessibles gratuitement, sont réparties sur l'entièreté du jardin extérieur : 
 Jardin de l'évolution : avant les plantes à fleurs
 Jardin de l'évolution : les plantes à fleurs
 Jardin au naturel
@@ -645,58 +702,163 @@
 Prairie lorraine
 Dune
 Forêt lorraine
-Agrumes
-Collections remarquables
-Parmi les collections des Jardins botaniques du Grand Nancy et de l'Université de Lorraine, cinq d’entre elles, exceptionnelles, sont labellisées par le Conservatoire des collections végétales spécialisées (CCVS) :
+Agrumes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collections remarquables</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Parmi les collections des Jardins botaniques du Grand Nancy et de l'Université de Lorraine, cinq d’entre elles, exceptionnelles, sont labellisées par le Conservatoire des collections végétales spécialisées (CCVS) :
 les aracées tropicales : 900 accessions (550 espèces),
 les fougères tropicales : 300 accessions (250 espèces),
 les plantes myrmécophiles : 170 accessions (150 espèces),
 les plantes carnivores : plus de 700 accessions (550 espèces),
-les obtentions des horticulteurs lorrains : 393 accessions (356 cultivars).
-Les herbiers
-Constitué en majorité des collections de la Faculté des sciences et de la Faculté de pharmacie, l'Herbier NCY - Herbier des Jardins botaniques du Grand Nancy et de l'Université de Lorraine - est le témoin des travaux scientifiques nancéiens, voire lorrains dans le domaine de la botanique. Plus de 300 000 planches d’herbiers (phanérogames et cryptogames) datant du XVIIe siècle à nos jours y sont conservées.
+les obtentions des horticulteurs lorrains : 393 accessions (356 cultivars).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les herbiers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constitué en majorité des collections de la Faculté des sciences et de la Faculté de pharmacie, l'Herbier NCY - Herbier des Jardins botaniques du Grand Nancy et de l'Université de Lorraine - est le témoin des travaux scientifiques nancéiens, voire lorrains dans le domaine de la botanique. Plus de 300 000 planches d’herbiers (phanérogames et cryptogames) datant du XVIIe siècle à nos jours y sont conservées.
 Les herbiers historiques
 Herbier de la Flore de France de Dominique-Alexandre Godron
 Herbier général dont les principaux collecteurs sont (liste non exhaustive) : B. Balansa, A. &amp; R. Balay, Berlandier, P. C. Billot, H. Blanchet, P. E. Boissier, E. Bourgeau, E. Briard, F. A. Camus, Ch. Claire, A. Coppey, Demangeon, H. Delamare, V. Desnos, D. Dietrich, F. Dozy, F. F. Drege, m. C. Durieu de Maisonneuve, C. F. Ecklon, Edme, P. Endress, F. Fautrey, C. Flagey, fric, Ch. Gerard, J. Godfrin, D.-A. Godron, A.Y. Grevillius, F. J. Harmand, T. Von Heldreich, H. Henrich, l. Hedouville, Henry, R. F. Hohenacker, P. T. Husnot, C. G. T. Kotschy, R. Lienhart, R. Maire, A. F. Malbranche, F. Mangenot, Ch. Manoury, Martin, J.-M. Molkenboer, A. Monnier, C. J. Moser, A. Mougeot, J.-B. Mougeot, F. W. Noë, D. Perrin, T. Puel, G. L. Rabenhorst, H. G. L. Reichenbach, G. F. Reuter, N. Riehl C. Roumeguere, M. Petitmengin, E. Prager, Salle, P. Salzmann, G. H. W. Schimper, F. W. Schultz, F. W. Sieber, Joseph-François Soleirol, H.-F. Soyer-Willemet, Vincent, R.-G. Werner, Ph. Wirtgen, etc.
 Les herbiers contemporains
 Herbier des plantes en culture dans les serres tropicales et les collections de pleine terre des Jardins botaniques du Montet (54) et du Haut Chitelet (88)
 Herbier des plantes de Lorraine
-L'Herbier NCY est inscrit dans le projet E-ReColNat[8].
-La bibliothèque
-La bibliothèque est constituée de plus de 7000 ouvrages, 2000 volumes de périodiques, une centaine d’abonnements et quelques DVD.
+L'Herbier NCY est inscrit dans le projet E-ReColNat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La bibliothèque</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bibliothèque est constituée de plus de 7000 ouvrages, 2000 volumes de périodiques, une centaine d’abonnements et quelques DVD.
 Le fonds documentaire couvre entre autres des domaines tels que l’horticulture, la botanique, la biologie végétale et l’arboriculture.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jardin_botanique_Jean-Marie-Pelt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_Jean-Marie-Pelt</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_Jean-Marie-Pelt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pavillon d'accueil du jardin, en bois et en verre, a été réalisé en 2005 sur les plans de l'architecte Christophe Presle[9],[10].
-Dans le jardin se trouve la chapelle Sainte-Valérie (48° 39′ 35,2″ N, 6° 09′ 13″ E) qui surplombe l'alpinum[11]. Elle a été érigée au XVIe siècle en l'honneur de Valérie Geoffroy, soit par son père Jean Geoffroy[12], soit par son époux Antoine Champier (fils de Symphorien Champier et filleul du duc Antoine de Lorraine)[13]. C'est une dépendance du château du Montet situé en lisière du jardin.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pavillon d'accueil du jardin, en bois et en verre, a été réalisé en 2005 sur les plans de l'architecte Christophe Presle,.
+Dans le jardin se trouve la chapelle Sainte-Valérie (48° 39′ 35,2″ N, 6° 09′ 13″ E) qui surplombe l'alpinum. Elle a été érigée au XVIe siècle en l'honneur de Valérie Geoffroy, soit par son père Jean Geoffroy, soit par son époux Antoine Champier (fils de Symphorien Champier et filleul du duc Antoine de Lorraine). C'est une dépendance du château du Montet situé en lisière du jardin.
 </t>
         </is>
       </c>
